--- a/CS4013ProjectTeamContributions (1).xlsx
+++ b/CS4013ProjectTeamContributions (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teagu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwan\Downloads\Payroll-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5924F-A815-4B24-BCD1-B54081A366E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE607740-6E44-468A-B089-16E61B6F6928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="2520" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -283,13 +283,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,41 +608,41 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22346015</v>
       </c>
@@ -676,13 +676,13 @@
         <v>0.15</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>23304952</v>
       </c>
@@ -696,13 +696,13 @@
         <v>0.6</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>23382783</v>
       </c>
@@ -716,13 +716,13 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>23365749</v>
       </c>
@@ -736,13 +736,13 @@
         <v>0.15</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3">
         <f>SUM(C4:C7)</f>
         <v>1</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1212,10 +1212,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1224,11 +1224,11 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="D36" s="4"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1253,14 +1253,14 @@
       <c r="E37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>45610</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>45611</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>45613</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>45614</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41962</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>45616</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>45617</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>45618</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45624</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>45625</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>45626</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -1513,16 +1513,36 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>45627</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F52" s="3"/>
     </row>
   </sheetData>

--- a/CS4013ProjectTeamContributions (1).xlsx
+++ b/CS4013ProjectTeamContributions (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwan\Downloads\Payroll-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE607740-6E44-468A-B089-16E61B6F6928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72293087-3C90-4516-A1A2-CCC0F94DA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="2520" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9790" yWindow="2500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -103,9 +103,6 @@
     <t>csvReader.java</t>
   </si>
   <si>
-    <t>CLIcsvReader.java</t>
-  </si>
-  <si>
     <t>DateCheck.java</t>
   </si>
   <si>
@@ -154,15 +151,6 @@
     <t>ULPayScales.csv</t>
   </si>
   <si>
-    <t>can delete</t>
-  </si>
-  <si>
-    <t>not used</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Attendance Iwan</t>
   </si>
   <si>
@@ -200,6 +188,18 @@
   </si>
   <si>
     <t>Planning &amp; Progress</t>
+  </si>
+  <si>
+    <t>DateCheckTester.java</t>
+  </si>
+  <si>
+    <t>CS4013ProjectTeamContributions(1).xlsx</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>DateCheckFake.java</t>
   </si>
 </sst>
 </file>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,13 +673,13 @@
         <v>0.25</v>
       </c>
       <c r="D4" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="3">
         <v>0.2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="3">
         <v>0.3</v>
@@ -733,13 +733,13 @@
         <v>0.25</v>
       </c>
       <c r="D7" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="3">
         <v>0.3</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -832,41 +832,46 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F32" si="1">SUM(B13:E13)</f>
+        <f t="shared" ref="F13:F35" si="1">SUM(B13:E13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
@@ -875,19 +880,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D16" s="3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
@@ -896,16 +901,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -917,19 +922,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
@@ -938,10 +943,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -950,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
@@ -959,19 +964,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
@@ -980,19 +985,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
@@ -1001,28 +1006,37 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1034,16 +1048,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1055,16 +1069,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D25" s="3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -1076,16 +1090,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1097,19 +1111,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
@@ -1118,31 +1132,40 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.2</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
@@ -1151,19 +1174,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
@@ -1172,10 +1195,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1184,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
@@ -1193,357 +1216,427 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
-        <v>45610</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
-        <v>45611</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
-        <v>45613</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>1.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
-        <v>45614</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
+      <c r="E41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
-        <v>41962</v>
+        <v>45610</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
-        <v>45616</v>
+        <v>45611</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
-        <v>45617</v>
+        <v>45613</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
-        <v>45618</v>
+        <v>45614</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>45624</v>
+        <v>41962</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>45624</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>45625</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>45626</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
         <v>45627</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F52" s="3"/>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CS4013ProjectTeamContributions (1).xlsx
+++ b/CS4013ProjectTeamContributions (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwan\Downloads\Payroll-System-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelluke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72293087-3C90-4516-A1A2-CCC0F94DA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74110A5-1C74-A04F-8AFD-84909FE15356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9790" yWindow="2500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2480" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>DateCheckFake.java</t>
+  </si>
+  <si>
+    <t>ClassRelationshipDiagram.draw.io</t>
   </si>
 </sst>
 </file>
@@ -309,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +352,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,22 +610,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -632,7 +635,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
@@ -642,7 +645,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>22346015</v>
       </c>
@@ -682,7 +685,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23304952</v>
       </c>
@@ -702,7 +705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23382783</v>
       </c>
@@ -722,7 +725,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23365749</v>
       </c>
@@ -742,7 +745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <f>SUM(C4:C7)</f>
         <v>1</v>
@@ -760,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -777,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -815,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -832,11 +835,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F35" si="1">SUM(B13:E13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F13:F36" si="1">SUM(B13:E13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -857,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -878,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -899,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -920,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -941,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -962,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -983,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1298,17 +1301,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -1317,11 +1334,11 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +1347,7 @@
       <c r="D40" s="4"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45610</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45611</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45613</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45614</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>41962</v>
       </c>
@@ -1468,7 +1485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45616</v>
       </c>
@@ -1491,7 +1508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45617</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45618</v>
       </c>
@@ -1537,7 +1554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45624</v>
       </c>
@@ -1560,7 +1577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45625</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45626</v>
       </c>
@@ -1606,7 +1623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45627</v>
       </c>
@@ -1629,13 +1646,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F56" s="3"/>
     </row>
   </sheetData>

--- a/CS4013ProjectTeamContributions (1).xlsx
+++ b/CS4013ProjectTeamContributions (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelluke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74110A5-1C74-A04F-8AFD-84909FE15356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2DC8E6-235D-2F44-A92E-547C76350402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2480" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -203,13 +203,16 @@
   </si>
   <si>
     <t>ClassRelationshipDiagram.draw.io</t>
+  </si>
+  <si>
+    <t>CRC_vers2.drawio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +259,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -293,6 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F36" si="1">SUM(B13:E13)</f>
+        <f t="shared" ref="F13:F37" si="1">SUM(B13:E13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1333,25 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="3"/>
+      <c r="A37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
